--- a/public/20220323_SUGGEREIX_Taula_C3.xlsx
+++ b/public/20220323_SUGGEREIX_Taula_C3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra-my.sharepoint.com/personal/mfont_icra_cat/Documents/Documentos/SUGGEREIX_Taules_transformades/Taules_SAD_actuals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{A0F5CC45-8504-448A-A1FF-536C63BAEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DE08DCF-A120-4059-807F-79C0EC8F7157}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{A0F5CC45-8504-448A-A1FF-536C63BAEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8BCE4F-6657-4267-AC17-AC9B9AFDFAD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
   <si>
     <t>Monitoratge periòdic dels indicadors químics (I6-I18) al punt de sortida: proposta de rangs del quocient de risc (QR) al punt de sortida i freqüències associades</t>
   </si>
@@ -103,14 +103,14 @@
     <t>&lt;0.3</t>
   </si>
   <si>
-    <t>No caldria monitorar un paràmetre químic si els resultats del monitoratge durant un període d’almenys 3 anys mostren que la seva concentració és inferior al 30 % del valor paramètric.</t>
+    <t>No caldria monitorar un paràmetre químic si els resultats del monitoratge durant un període d’almenys 3 anys mostren que la seva concentració és inferior al 30 % del VP.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,10 +542,10 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -554,15 +554,15 @@
     <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
@@ -587,7 +587,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -602,7 +602,7 @@
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -632,7 +632,7 @@
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -652,7 +652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -688,14 +688,8 @@
       <c r="E14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -711,11 +705,8 @@
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -731,8 +722,11 @@
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -749,7 +743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
@@ -763,7 +757,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -780,7 +774,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>21</v>
       </c>
@@ -803,12 +797,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -817,9 +805,15 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ef99dbbf91b45e5b3a4dea5abbe872c8">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54bedf7cf1dcccdbf5f603835d22ff17" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -833,6 +827,7 @@
                 <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -871,6 +866,13 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -974,13 +976,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188F95BA-468F-46CB-8382-6EFE71E4B72B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C51A203-1372-4F3D-B343-DB8FDECE5A3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C51A203-1372-4F3D-B343-DB8FDECE5A3D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188F95BA-468F-46CB-8382-6EFE71E4B72B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{231DE06E-C08B-4C6B-A0B3-622484FE5412}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088229E4-5E8A-4E1D-AC50-4860C993264A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/public/20220323_SUGGEREIX_Taula_C3.xlsx
+++ b/public/20220323_SUGGEREIX_Taula_C3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{A0F5CC45-8504-448A-A1FF-536C63BAEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B8BCE4F-6657-4267-AC17-AC9B9AFDFAD6}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{A0F5CC45-8504-448A-A1FF-536C63BAEF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B28A367-DE44-4975-944F-1CFDFBDCB9B5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>Monitoratge periòdic dels indicadors químics (I6-I18) al punt de sortida: proposta de rangs del quocient de risc (QR) al punt de sortida i freqüències associades</t>
   </si>
@@ -541,9 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ADE505A-6B2A-4AD4-8BD3-433AEB2333CC}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
@@ -722,9 +720,6 @@
       <c r="E16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -797,18 +792,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -976,25 +971,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188F95BA-468F-46CB-8382-6EFE71E4B72B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C51A203-1372-4F3D-B343-DB8FDECE5A3D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188F95BA-468F-46CB-8382-6EFE71E4B72B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
